--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06381556055603038</v>
+        <v>0.06722580394740553</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.445593786693611</v>
+        <v>3.821060765133717</v>
       </c>
       <c r="I2" t="n">
-        <v>-447.7235859832591</v>
+        <v>-70.19123444635315</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06621229009900671</v>
+        <v>0.07449243302246021</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.205583060037696</v>
+        <v>8.898991562842772</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03301823621230631</v>
+        <v>-0.03892626210420437</v>
       </c>
       <c r="H4" t="n">
-        <v>-26.45132047116703</v>
+        <v>13.29109288731735</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02917032314265324</v>
+        <v>-0.04375896522075896</v>
       </c>
       <c r="H5" t="n">
-        <v>7.751524907168289</v>
+        <v>-61.6401439174338</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09156869616654492</v>
+        <v>-0.1059318550642394</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.64799944936793</v>
+        <v>0.1031139484681808</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09236827705042508</v>
+        <v>-0.08580507744231732</v>
       </c>
       <c r="H7" t="n">
-        <v>1.091273281835211</v>
+        <v>6.091736149251741</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3708235751938707</v>
+        <v>-0.3604675415178827</v>
       </c>
       <c r="H8" t="n">
-        <v>1.068137745974512</v>
+        <v>1.754404045009248</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3785434979011059</v>
+        <v>-0.3819746142315359</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.960138781828426</v>
+        <v>2.0805699756689</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03311991977388066</v>
+        <v>0.02623607185697606</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03309976665605</v>
+        <v>29.93945099451733</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02090495251962728</v>
+        <v>0.04085606379846735</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.885282401059915</v>
+        <v>80.02646863065915</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2143979325050289</v>
+        <v>0.218207108446705</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.314407948655719</v>
+        <v>-1.596609521937906</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2239983819314911</v>
+        <v>0.2329176254027295</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5365821275669914</v>
+        <v>3.423885947408133</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04051160909254879</v>
+        <v>-0.04046412012738942</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.784561765119969</v>
+        <v>3.897348487160356</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04279383423441674</v>
+        <v>-0.04546777015092802</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.27849667598409</v>
+        <v>4.672325728382341</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2088760408634564</v>
+        <v>0.2219989499483603</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.739332357808403</v>
+        <v>4.434021956836862</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2149823457216479</v>
+        <v>0.2131858790883665</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.523541169234342</v>
+        <v>-3.338088081131141</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08144847497661099</v>
+        <v>0.07713202805337856</v>
       </c>
       <c r="H18" t="n">
-        <v>11.54232623296167</v>
+        <v>5.631024259330906</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07802881369714021</v>
+        <v>0.07288161929369785</v>
       </c>
       <c r="H19" t="n">
-        <v>3.571637754883734</v>
+        <v>-3.260496798340098</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08656220352813385</v>
+        <v>-0.07321650954047218</v>
       </c>
       <c r="H20" t="n">
-        <v>15.44401470735171</v>
+        <v>2.354521260955603</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08903555384756652</v>
+        <v>-0.08155183302143035</v>
       </c>
       <c r="H21" t="n">
-        <v>2.849434862618888</v>
+        <v>5.795386496671771</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07064500449926985</v>
+        <v>0.06720473908328339</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.886828038350953</v>
+        <v>-8.567340466145298</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06155113041288438</v>
+        <v>0.07367378614657269</v>
       </c>
       <c r="H23" t="n">
-        <v>-9.92251620841075</v>
+        <v>7.818479254017722</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06406730109299344</v>
+        <v>0.06398582350122863</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.820370331885</v>
+        <v>-3.94268677831709</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05953817773614148</v>
+        <v>0.06604577092699963</v>
       </c>
       <c r="H25" t="n">
-        <v>8.685869120399776</v>
+        <v>20.56536306401558</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1180454211240397</v>
+        <v>0.1210477642112683</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.092269498120833</v>
+        <v>1.423329481646041</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1213742484991886</v>
+        <v>0.128054879230127</v>
       </c>
       <c r="H27" t="n">
-        <v>6.599379157429226</v>
+        <v>12.46677769627858</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1405688644673977</v>
+        <v>0.1360149495921302</v>
       </c>
       <c r="H28" t="n">
-        <v>8.75449884569349</v>
+        <v>5.231252556964091</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1409043589518984</v>
+        <v>0.145122885947872</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.587130040852516</v>
+        <v>-3.790447832968794</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0925019537296207</v>
+        <v>0.09081001026311288</v>
       </c>
       <c r="H30" t="n">
-        <v>9.71997221244531</v>
+        <v>7.713095788268538</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0925019537296207</v>
+        <v>0.09081001026311288</v>
       </c>
       <c r="H31" t="n">
-        <v>13.2380558715663</v>
+        <v>11.16683055072648</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05325159096691594</v>
+        <v>0.04965845441129226</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.2029728941399219</v>
+        <v>-6.936750040054932</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05571692952291182</v>
+        <v>0.05688078442867719</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8580624751952204</v>
+        <v>2.96485751582062</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02137741629745813</v>
+        <v>0.02245745151230089</v>
       </c>
       <c r="H34" t="n">
-        <v>23.16135071154746</v>
+        <v>29.38373951780778</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01969003388611999</v>
+        <v>0.02245745151230089</v>
       </c>
       <c r="H35" t="n">
-        <v>16.50433241087286</v>
+        <v>32.87891789432231</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.03154214404533007</v>
+        <v>-0.028389605615176</v>
       </c>
       <c r="H36" t="n">
-        <v>8.594881520864314</v>
+        <v>2.258836502252722</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0227616425882242</v>
+        <v>-0.03407690386446319</v>
       </c>
       <c r="H37" t="n">
-        <v>-31.57249396191307</v>
+        <v>-2.444168337447866</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07486736678811777</v>
+        <v>0.07773205036937496</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.362847988505855</v>
+        <v>-0.7034408144711588</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07482396660421986</v>
+        <v>0.07139458882708651</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.757359835426704</v>
+        <v>-8.168411352366942</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06436842363823618</v>
+        <v>0.0671628500838474</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.779995333172567</v>
+        <v>1.440616835462994</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06902205469527928</v>
+        <v>0.07546912863120987</v>
       </c>
       <c r="H41" t="n">
-        <v>6.150477699237777</v>
+        <v>16.06556905782847</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08108370834314349</v>
+        <v>0.08158600782110707</v>
       </c>
       <c r="H42" t="n">
-        <v>4.232369823174793</v>
+        <v>4.878071234949394</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08129541729234877</v>
+        <v>0.08667070182049637</v>
       </c>
       <c r="H43" t="n">
-        <v>1.410755831004857</v>
+        <v>8.116074346633642</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07835961891560858</v>
+        <v>0.09059160601318694</v>
       </c>
       <c r="H44" t="n">
-        <v>-11.20451610740458</v>
+        <v>2.656516249927409</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08674644934509501</v>
+        <v>0.08841057438685433</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.024026558968806</v>
+        <v>-2.182844331727842</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.00546991303896947</v>
+        <v>0.004174468531392874</v>
       </c>
       <c r="H46" t="n">
-        <v>99.90754316229084</v>
+        <v>252.5632568879498</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01201963429438614</v>
+        <v>-0.00214766700859127</v>
       </c>
       <c r="H47" t="n">
-        <v>-25259.68139333288</v>
+        <v>-4395.529260849969</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.106325410800116</v>
+        <v>-0.09354761524741659</v>
       </c>
       <c r="H48" t="n">
-        <v>10.6344635537662</v>
+        <v>2.661178059414909</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1077929078481981</v>
+        <v>-0.0997141241738095</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.627447568748151</v>
+        <v>9.000201365396189</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1709823661009051</v>
+        <v>0.1640335734904538</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2833297153590031</v>
+        <v>-3.792225421515707</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1742074585793074</v>
+        <v>0.1792571562026003</v>
       </c>
       <c r="H51" t="n">
-        <v>2.574612617171481</v>
+        <v>5.54791113014713</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07608180836463616</v>
+        <v>0.06177282845617584</v>
       </c>
       <c r="H52" t="n">
-        <v>7.215033539083157</v>
+        <v>-12.94928423636981</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0616679561308608</v>
+        <v>0.06799973052480951</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.117400823223718</v>
+        <v>5.727371476420284</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1362764949685697</v>
+        <v>-0.155716748650149</v>
       </c>
       <c r="H54" t="n">
-        <v>6.630242552055436</v>
+        <v>-21.84136876878402</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1287388447310064</v>
+        <v>-0.1274660012382811</v>
       </c>
       <c r="H55" t="n">
-        <v>10.53280171945686</v>
+        <v>-9.439961732464022</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1854957682306337</v>
+        <v>0.1875307805177246</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.381353019224629</v>
+        <v>-1.310411358668418</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2053399031481167</v>
+        <v>0.2028489696711937</v>
       </c>
       <c r="H57" t="n">
-        <v>3.233464675178246</v>
+        <v>1.981162082473394</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_semester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06475160574547126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06722580394740553</v>
+        <v>0.06961712049422596</v>
       </c>
       <c r="H2" t="n">
-        <v>3.821060765133717</v>
+        <v>7.514122148383932</v>
       </c>
       <c r="I2" t="n">
-        <v>-70.19123444635315</v>
+        <v>266.9417924670549</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06840507148266159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07449243302246021</v>
+        <v>0.05822974969029</v>
       </c>
       <c r="H3" t="n">
-        <v>8.898991562842772</v>
+        <v>-14.8750985443392</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.04489303740573931</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03892626210420437</v>
+        <v>-0.04910717694545015</v>
       </c>
       <c r="H4" t="n">
-        <v>13.29109288731735</v>
+        <v>-9.387067089321276</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.02707184252639069</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04375896522075896</v>
+        <v>-0.02177277639173033</v>
       </c>
       <c r="H5" t="n">
-        <v>-61.6401439174338</v>
+        <v>19.57408746558209</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1060411983308413</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1059318550642394</v>
+        <v>-0.1078707948026512</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1031139484681808</v>
+        <v>-1.725363821428803</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.09137116790774705</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08580507744231732</v>
+        <v>-0.08465840257742548</v>
       </c>
       <c r="H7" t="n">
-        <v>6.091736149251741</v>
+        <v>7.346699712866885</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3669045294234091</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3604675415178827</v>
+        <v>-0.3512658154931594</v>
       </c>
       <c r="H8" t="n">
-        <v>1.754404045009248</v>
+        <v>4.262338749217949</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3900907247280979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3819746142315359</v>
+        <v>-0.3693918859339904</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0805699756689</v>
+        <v>5.306160203766716</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.02019099792724464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02623607185697606</v>
+        <v>0.02961625802635845</v>
       </c>
       <c r="H10" t="n">
-        <v>29.93945099451733</v>
+        <v>46.680506496392</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.02269447604523495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04085606379846735</v>
+        <v>0.01955848455952199</v>
       </c>
       <c r="H11" t="n">
-        <v>80.02646863065915</v>
+        <v>-13.81830309482474</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2217475509599964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.218207108446705</v>
+        <v>0.2278241916333697</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.596609521937906</v>
+        <v>2.740341729622769</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2252068013777494</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2329176254027295</v>
+        <v>0.2334742436414624</v>
       </c>
       <c r="H13" t="n">
-        <v>3.423885947408133</v>
+        <v>3.671044663453863</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0421051027109104</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04046412012738942</v>
+        <v>-0.04378076744585497</v>
       </c>
       <c r="H14" t="n">
-        <v>3.897348487160356</v>
+        <v>-3.979718910673427</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.0476962964829882</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04546777015092802</v>
+        <v>-0.04695857061988017</v>
       </c>
       <c r="H15" t="n">
-        <v>4.672325728382341</v>
+        <v>1.546715190709091</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.2125733987723978</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2219989499483603</v>
+        <v>0.2181899973867798</v>
       </c>
       <c r="H16" t="n">
-        <v>4.434021956836862</v>
+        <v>2.642192601152169</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.220547964401221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2131858790883665</v>
+        <v>0.2147568520080903</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.338088081131141</v>
+        <v>-2.625783651575906</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.0730202405914521</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07713202805337856</v>
+        <v>0.07249210735873082</v>
       </c>
       <c r="H18" t="n">
-        <v>5.631024259330906</v>
+        <v>-0.7232696420108718</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.07533801278860332</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07288161929369785</v>
+        <v>0.08127186641608702</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.260496798340098</v>
+        <v>7.876307600698149</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.07498197610986357</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.07321650954047218</v>
+        <v>-0.08625861142907704</v>
       </c>
       <c r="H20" t="n">
-        <v>2.354521260955603</v>
+        <v>-15.03912794014784</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.08656883138589506</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08155183302143035</v>
+        <v>-0.08428973720668782</v>
       </c>
       <c r="H21" t="n">
-        <v>5.795386496671771</v>
+        <v>2.632696020866676</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.07350189683413895</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06720473908328339</v>
+        <v>0.07321218474337871</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.567340466145298</v>
+        <v>-0.3941559377902794</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.06833131635347874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07367378614657269</v>
+        <v>0.06910148658922798</v>
       </c>
       <c r="H23" t="n">
-        <v>7.818479254017722</v>
+        <v>1.127111662484504</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.0666121311904289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06398582350122863</v>
+        <v>0.06366256457932537</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.94268677831709</v>
+        <v>-4.427972140196792</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.05478005394628295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06604577092699963</v>
+        <v>0.05801096350216421</v>
       </c>
       <c r="H25" t="n">
-        <v>20.56536306401558</v>
+        <v>5.897967094098658</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.119349034221139</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1210477642112683</v>
+        <v>0.1238635279118375</v>
       </c>
       <c r="H26" t="n">
-        <v>1.423329481646041</v>
+        <v>3.78259758879464</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1138601832942567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.128054879230127</v>
+        <v>0.1263122357472606</v>
       </c>
       <c r="H27" t="n">
-        <v>12.46677769627858</v>
+        <v>10.9362659471777</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1292533789032894</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1360149495921302</v>
+        <v>0.1336449761175487</v>
       </c>
       <c r="H28" t="n">
-        <v>5.231252556964091</v>
+        <v>3.397665307879653</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1508404131181501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.145122885947872</v>
+        <v>0.147511018907496</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.790447832968794</v>
+        <v>-2.20722957583408</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.08430730692358705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09081001026311288</v>
+        <v>0.08744802109692629</v>
       </c>
       <c r="H30" t="n">
-        <v>7.713095788268538</v>
+        <v>3.725316687183305</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.08168804472812186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09081001026311288</v>
+        <v>0.08996446589622038</v>
       </c>
       <c r="H31" t="n">
-        <v>11.16683055072648</v>
+        <v>10.1317410591042</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.05335989709435844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04965845441129226</v>
+        <v>0.0494291683403365</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.936750040054932</v>
+        <v>-7.366447403508067</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.05524291083483257</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05688078442867719</v>
+        <v>0.04873326233259554</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96485751582062</v>
+        <v>-11.7836812069875</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.01735724411428837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02245745151230089</v>
+        <v>0.01657530173321895</v>
       </c>
       <c r="H34" t="n">
-        <v>29.38373951780778</v>
+        <v>-4.504991552349776</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01690068813636874</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02245745151230089</v>
+        <v>0.02563310007299918</v>
       </c>
       <c r="H35" t="n">
-        <v>32.87891789432231</v>
+        <v>51.66897268424878</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>-0.02904570050041436</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.028389605615176</v>
+        <v>-0.03245564816056835</v>
       </c>
       <c r="H36" t="n">
-        <v>2.258836502252722</v>
+        <v>-11.73993947952931</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.03326387867410367</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.03407690386446319</v>
+        <v>-0.02336732177005019</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.444168337447866</v>
+        <v>29.75166245948964</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.07828272299359128</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07773205036937496</v>
+        <v>0.08037882565859551</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.7034408144711588</v>
+        <v>2.677605715345179</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.07774513092769705</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07139458882708651</v>
+        <v>0.08275848172505963</v>
       </c>
       <c r="H39" t="n">
-        <v>-8.168411352366942</v>
+        <v>6.448443442747551</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.06620903162762284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0671628500838474</v>
+        <v>0.06310616695656233</v>
       </c>
       <c r="H40" t="n">
-        <v>1.440616835462994</v>
+        <v>-4.686467381839752</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.06502283945517741</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07546912863120987</v>
+        <v>0.07925409630382091</v>
       </c>
       <c r="H41" t="n">
-        <v>16.06556905782847</v>
+        <v>21.88655089178875</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.07779129312774727</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08158600782110707</v>
+        <v>0.07825308757863994</v>
       </c>
       <c r="H42" t="n">
-        <v>4.878071234949394</v>
+        <v>0.5936325677660641</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.08016449204640863</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08667070182049637</v>
+        <v>0.08381032556969364</v>
       </c>
       <c r="H43" t="n">
-        <v>8.116074346633642</v>
+        <v>4.547940653293701</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.0882473020929648</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09059160601318694</v>
+        <v>0.09094374488486953</v>
       </c>
       <c r="H44" t="n">
-        <v>2.656516249927409</v>
+        <v>3.055552666147392</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.09038350561601033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08841057438685433</v>
+        <v>0.09109997511123791</v>
       </c>
       <c r="H45" t="n">
-        <v>-2.182844331727842</v>
+        <v>0.7926993872880549</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.002736221431388826</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004174468531392874</v>
+        <v>0.003844131055285298</v>
       </c>
       <c r="H46" t="n">
-        <v>252.5632568879498</v>
+        <v>240.4904958051633</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-4.777339627826626e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.00214766700859127</v>
+        <v>0.006898104600192063</v>
       </c>
       <c r="H47" t="n">
-        <v>-4395.529260849969</v>
+        <v>14539.21750928611</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.09610514426044459</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09354761524741659</v>
+        <v>-0.09594791529176937</v>
       </c>
       <c r="H48" t="n">
-        <v>2.661178059414909</v>
+        <v>0.1636009912738165</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1095762031015</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0997141241738095</v>
+        <v>-0.09430042902023933</v>
       </c>
       <c r="H49" t="n">
-        <v>9.000201365396189</v>
+        <v>13.94077696515071</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.170499290945181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1640335734904538</v>
+        <v>0.1706745255642565</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.792225421515707</v>
+        <v>0.1027773301015375</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1698348686233734</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1792571562026003</v>
+        <v>0.1715587655875651</v>
       </c>
       <c r="H51" t="n">
-        <v>5.54791113014713</v>
+        <v>1.015043010993592</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.07096188459140108</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06177282845617584</v>
+        <v>0.0761635029376444</v>
       </c>
       <c r="H52" t="n">
-        <v>-12.94928423636981</v>
+        <v>7.330158121073395</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06431610809503106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06799973052480951</v>
+        <v>0.06658274265729622</v>
       </c>
       <c r="H53" t="n">
-        <v>5.727371476420284</v>
+        <v>3.524209765485282</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.127802855650489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.155716748650149</v>
+        <v>-0.1432004723787958</v>
       </c>
       <c r="H54" t="n">
-        <v>-21.84136876878402</v>
+        <v>-12.047944194937</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1164711675885664</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1274660012382811</v>
+        <v>-0.1209273817441362</v>
       </c>
       <c r="H55" t="n">
-        <v>-9.439961732464022</v>
+        <v>-3.826023425223433</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1900208351250397</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1875307805177246</v>
+        <v>0.1868521856336448</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.310411358668418</v>
+        <v>-1.667527399987386</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1989082743606582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2028489696711937</v>
+        <v>0.1940687980036105</v>
       </c>
       <c r="H57" t="n">
-        <v>1.981162082473394</v>
+        <v>-2.433019125324481</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>